--- a/Excel Cleaned Data/IPEDSData_Cleaned.xlsx
+++ b/Excel Cleaned Data/IPEDSData_Cleaned.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meghaan\Projects\M.S.-Data-Analytics-Capstone-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meghaan\Projects\M.S.-Data-Analytics-Capstone-Project\Excel Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACED558-634B-43EE-9E9B-19649E81BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9835E2F6-0CCE-4B43-B3E0-AA850111368B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPEDS Data 3-13-24" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -3916,7 +3916,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
